--- a/bursa_eczaneler.xlsx
+++ b/bursa_eczaneler.xlsx
@@ -5,6 +5,7 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="bursa" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Analiz" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -23037,4 +23038,14 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/bursa_eczaneler.xlsx
+++ b/bursa_eczaneler.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4005" uniqueCount="2902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="2908">
   <si>
     <t>Eczane Adı</t>
   </si>
@@ -484,6 +484,15 @@
     <t>0 (224) 376-15-32</t>
   </si>
   <si>
+    <t>Kolay Eczanesi</t>
+  </si>
+  <si>
+    <t>istiklal mahallesi, fatih caddesi no:1/b gürsu / bursaGürsu</t>
+  </si>
+  <si>
+    <t>0 (224) 504-81-81</t>
+  </si>
+  <si>
     <t>Özün Eczanesi</t>
   </si>
   <si>
@@ -1165,7 +1174,7 @@
     <t>Limon Eczanesi</t>
   </si>
   <si>
-    <t>mahmudiye mahallesi, edep ali caddesi no:1/a inegöl / bursaİnegöl</t>
+    <t>mahmudiye mahallesi, edep ali caddesi no:1/a inegöl / bursa» İsra Market karşısıİnegöl</t>
   </si>
   <si>
     <t>0 (546) 463-15-10</t>
@@ -2779,7 +2788,7 @@
     <t>Pera Eczanesi</t>
   </si>
   <si>
-    <t>cumhuriyet mahallesi, mavi sokak, pera plaza iş merkezi no:11/d nilüfer / bursaNilüfer</t>
+    <t>cumhuriyet mahallesi, mavi sokak, pera plaza iş merkezi no:11/d nilüfer / bursa» Pera Plaza Kapalı Çarşısı yanı, Özhan Market üstüNilüfer</t>
   </si>
   <si>
     <t>0 (546) 663-37-36</t>
@@ -3154,7 +3163,7 @@
     <t>Balkanlar Eczanesi</t>
   </si>
   <si>
-    <t>balkan mahallesi, mevlana sokak no:17/a nilüfer / bursaNilüfer</t>
+    <t>balkan mahallesi, mevlana sokak no:17/a nilüfer / bursa» Görükle PTT-2 Şubesi ve Göçmen Konutları Merkez Cami yanıNilüfer</t>
   </si>
   <si>
     <t>0 (505) 678-26-12</t>
@@ -3733,6 +3742,15 @@
     <t>0 (224) 363-27-11</t>
   </si>
   <si>
+    <t>Bilgi Eczanesi</t>
+  </si>
+  <si>
+    <t>odunluk mahallesi, mihraplı caddesi no:10/c nilüfer / bursaNilüfer</t>
+  </si>
+  <si>
+    <t>0 (224) 504-84-04</t>
+  </si>
+  <si>
     <t>demirci mahallesi, kavaklıdere caddesi, no:22a/11 nilüfer / bursa» Yönder Okulları altıNilüfer</t>
   </si>
   <si>
@@ -5026,7 +5044,7 @@
     <t>Koç Eczanesi</t>
   </si>
   <si>
-    <t>zafer mahallesi, namık kemal caddesi no:22/a osmangazi / bursaOsmangazi</t>
+    <t>zafer mahallesi, namık kemal caddesi no:22/a osmangazi / bursa» Hayat Hastanesi karşısı, Bursa Büyükşehir Belediyesi arkasıOsmangazi</t>
   </si>
   <si>
     <t>0 (224) 254-66-26</t>
@@ -5143,6 +5161,15 @@
     <t>0 (224) 242-21-22</t>
   </si>
   <si>
+    <t>Cadde Sağlık Eczanesi</t>
+  </si>
+  <si>
+    <t>hamitler mahallesi, gür caddesi no:105/a osmangazi / bursaOsmangazi</t>
+  </si>
+  <si>
+    <t>0 (224) 245-00-50</t>
+  </si>
+  <si>
     <t>Boyacıoğlu Eczanesi</t>
   </si>
   <si>
@@ -5884,15 +5911,6 @@
     <t>0 (224) 253-73-52</t>
   </si>
   <si>
-    <t>Koğukçınar Eczanesi</t>
-  </si>
-  <si>
-    <t>selamet mahallesi, sezgin caddesi no:16/a osmangazi / bursaOsmangazi</t>
-  </si>
-  <si>
-    <t>0 (224) 255-43-85</t>
-  </si>
-  <si>
     <t>Nefes Eczanesi</t>
   </si>
   <si>
@@ -6316,7 +6334,7 @@
     <t>Soğukkuyu Park Eczanesi</t>
   </si>
   <si>
-    <t>soğukkuyu mahallesi, fakülte caddesi no:5/a osmangazi / bursaOsmangazi</t>
+    <t>soğukkuyu mahallesi, fakülte caddesi no:5/a osmangazi / bursa» Hürriyet Askeriye Lojmanları arkası, Soğukkuyu Parkı karşısıOsmangazi</t>
   </si>
   <si>
     <t>0 (224) 249-49-06</t>
@@ -6796,7 +6814,7 @@
     <t>Merkez Bursa Eczanesi</t>
   </si>
   <si>
-    <t>ıntizam mahallesi, çarşamba caddesi, no:18/a osmangazi / bursa» Devlet Hastanesi Osmangazi Ek Bina üstüOsmangazi</t>
+    <t>intizam mahallesi, çarşamba caddesi no:18/a osmangazi / bursa» Devlet Hastanesi Osmangazi Ek Bina üstüOsmangazi</t>
   </si>
   <si>
     <t>0 (224) 253-13-19</t>
@@ -6964,7 +6982,7 @@
     <t>Hüma Eczanesi</t>
   </si>
   <si>
-    <t>panayır mahallesi, 2.derman caddesi, no:56/a osmangazi / bursaOsmangazi</t>
+    <t>panayır mahallesi, 2.derman caddesi, no:56/a osmangazi / bursa» 44 Nolu Panayır Aile Sağlığı Merkezi yanıOsmangazi</t>
   </si>
   <si>
     <t>0 (224) 211-15-15</t>
@@ -7522,7 +7540,7 @@
     <t>Maki Eczanesi</t>
   </si>
   <si>
-    <t>zümrütevler mahallesi, kurtbasan caddesi no:170/a yıldırım / bursaYıldırım</t>
+    <t>zümrütevler mahallesi, kurtbasan caddesi no:170/a yıldırım / bursa» Akçağlayan Toki - Shell altı, Zümrütevler Aile Sağlığı Merkezi yanıYıldırım</t>
   </si>
   <si>
     <t>0 (224) 329-50-01</t>
@@ -7807,7 +7825,7 @@
     <t>Asaf Eczanesi</t>
   </si>
   <si>
-    <t>yıldırım mahallesi, yıldırım caddesi no:24/c yıldırım / bursa» 15 Nolu Yıldırım Aile Sağlığı Merkezi civarıYıldırım</t>
+    <t>yıldırım mahallesi, yıldırım caddesi no:24/c yıldırım / bursa» Yıldırım Külliyesi-Molla Yegan karşısıYıldırım</t>
   </si>
   <si>
     <t>0 (224) 364-26-26</t>
@@ -8089,7 +8107,7 @@
     <t>Seval Eczanesi</t>
   </si>
   <si>
-    <t>yeşilyayla mahallesi, akdere sokak no:24 yıldırım / bursaYıldırım</t>
+    <t>yeşilyayla mahallesi, akdere sokak no:24 yıldırım / bursa» Yeşilyayla Aile Sağlığı Merkezi ve Hatice Aslanoba Sağlık Hizmet Binası karşısıYıldırım</t>
   </si>
   <si>
     <t>0 (224) 366-29-47</t>
@@ -9112,7 +9130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H993"/>
+  <dimension ref="A1:H995"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -9164,7 +9182,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -9233,7 +9251,7 @@
         <v>23</v>
       </c>
       <c r="H5">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9513,7 +9531,7 @@
         <v>79</v>
       </c>
       <c r="H19">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -10206,7 +10224,7 @@
         <v>224</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>225</v>
@@ -10234,7 +10252,7 @@
         <v>230</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>231</v>
@@ -10256,21 +10274,21 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
         <v>238</v>
@@ -10382,21 +10400,21 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C77" t="s">
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>264</v>
@@ -10514,7 +10532,7 @@
         <v>288</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>289</v>
@@ -10528,7 +10546,7 @@
         <v>291</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
         <v>292</v>
@@ -10662,21 +10680,21 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="B97" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C97" t="s">
         <v>31</v>
       </c>
       <c r="D97" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>322</v>
+        <v>127</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>323</v>
@@ -10704,21 +10722,21 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
         <v>331</v>
@@ -10942,21 +10960,21 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="B117" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
       </c>
       <c r="D117" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>381</v>
@@ -11228,7 +11246,7 @@
         <v>438</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D137" t="s">
         <v>439</v>
@@ -11242,7 +11260,7 @@
         <v>441</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>442</v>
@@ -11306,21 +11324,21 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>154</v>
+        <v>455</v>
       </c>
       <c r="B143" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C143" t="s">
         <v>31</v>
       </c>
       <c r="D143" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>457</v>
+        <v>154</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>458</v>
@@ -11348,21 +11366,21 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>465</v>
+        <v>130</v>
       </c>
       <c r="B147" t="s">
         <v>466</v>
@@ -11410,7 +11428,7 @@
         <v>475</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>476</v>
@@ -11446,21 +11464,21 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>483</v>
       </c>
       <c r="B153" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C153" t="s">
         <v>39</v>
       </c>
       <c r="D153" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>485</v>
+        <v>196</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>486</v>
@@ -11502,49 +11520,49 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="B157" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C157" t="s">
         <v>39</v>
       </c>
       <c r="D157" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>296</v>
+        <v>455</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="B159" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C159" t="s">
         <v>39</v>
       </c>
       <c r="D159" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>501</v>
@@ -11606,7 +11624,7 @@
         <v>513</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>514</v>
@@ -11614,21 +11632,21 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="B165" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C165" t="s">
         <v>43</v>
       </c>
       <c r="D165" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>518</v>
@@ -11670,21 +11688,21 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>425</v>
+        <v>526</v>
       </c>
       <c r="B169" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C169" t="s">
         <v>43</v>
       </c>
       <c r="D169" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>528</v>
+        <v>428</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>529</v>
@@ -11796,77 +11814,77 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>440</v>
+        <v>552</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>72</v>
+        <v>443</v>
       </c>
       <c r="B179" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C179" t="s">
         <v>43</v>
       </c>
       <c r="D179" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="B181" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C181" t="s">
         <v>43</v>
       </c>
       <c r="D181" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>562</v>
+        <v>226</v>
       </c>
       <c r="B183" t="s">
         <v>563</v>
@@ -11928,7 +11946,7 @@
         <v>575</v>
       </c>
       <c r="C187" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D187" t="s">
         <v>576</v>
@@ -11936,41 +11954,41 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>523</v>
+        <v>577</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>425</v>
+        <v>526</v>
       </c>
       <c r="B189" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C189" t="s">
         <v>47</v>
       </c>
       <c r="D189" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>581</v>
+        <v>428</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>582</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>583</v>
@@ -12076,35 +12094,35 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>208</v>
+        <v>605</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>419</v>
+        <v>211</v>
       </c>
       <c r="B199" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C199" t="s">
         <v>51</v>
       </c>
       <c r="D199" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>609</v>
+        <v>422</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>610</v>
@@ -12174,21 +12192,21 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>275</v>
+        <v>624</v>
       </c>
       <c r="B205" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C205" t="s">
         <v>51</v>
       </c>
       <c r="D205" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>626</v>
+        <v>278</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>627</v>
@@ -12216,21 +12234,21 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="B209" t="s">
         <v>635</v>
@@ -12264,7 +12282,7 @@
         <v>641</v>
       </c>
       <c r="C211" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D211" t="s">
         <v>642</v>
@@ -12278,7 +12296,7 @@
         <v>644</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>645</v>
@@ -12306,7 +12324,7 @@
         <v>650</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>651</v>
@@ -12320,7 +12338,7 @@
         <v>653</v>
       </c>
       <c r="C215" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D215" t="s">
         <v>654</v>
@@ -12348,7 +12366,7 @@
         <v>659</v>
       </c>
       <c r="C217" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D217" t="s">
         <v>660</v>
@@ -12376,7 +12394,7 @@
         <v>665</v>
       </c>
       <c r="C219" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D219" t="s">
         <v>666</v>
@@ -12390,7 +12408,7 @@
         <v>668</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>669</v>
@@ -12418,7 +12436,7 @@
         <v>674</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>675</v>
@@ -12432,7 +12450,7 @@
         <v>677</v>
       </c>
       <c r="C223" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D223" t="s">
         <v>678</v>
@@ -12446,7 +12464,7 @@
         <v>680</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>681</v>
@@ -12460,7 +12478,7 @@
         <v>683</v>
       </c>
       <c r="C225" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D225" t="s">
         <v>684</v>
@@ -12474,7 +12492,7 @@
         <v>686</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>687</v>
@@ -12488,7 +12506,7 @@
         <v>689</v>
       </c>
       <c r="C227" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D227" t="s">
         <v>690</v>
@@ -12502,7 +12520,7 @@
         <v>692</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>693</v>
@@ -12516,7 +12534,7 @@
         <v>695</v>
       </c>
       <c r="C229" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D229" t="s">
         <v>696</v>
@@ -12530,7 +12548,7 @@
         <v>698</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>699</v>
@@ -12558,7 +12576,7 @@
         <v>704</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>705</v>
@@ -12566,27 +12584,27 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>369</v>
+        <v>706</v>
       </c>
       <c r="B233" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C233" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D233" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>708</v>
+        <v>372</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>710</v>
@@ -12600,7 +12618,7 @@
         <v>712</v>
       </c>
       <c r="C235" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D235" t="s">
         <v>713</v>
@@ -12628,7 +12646,7 @@
         <v>718</v>
       </c>
       <c r="C237" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D237" t="s">
         <v>719</v>
@@ -12642,7 +12660,7 @@
         <v>721</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>722</v>
@@ -12684,7 +12702,7 @@
         <v>730</v>
       </c>
       <c r="C241" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D241" t="s">
         <v>731</v>
@@ -12698,7 +12716,7 @@
         <v>733</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>734</v>
@@ -12712,7 +12730,7 @@
         <v>736</v>
       </c>
       <c r="C243" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D243" t="s">
         <v>737</v>
@@ -12720,21 +12738,21 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>565</v>
+        <v>738</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>740</v>
+        <v>568</v>
       </c>
       <c r="B245" t="s">
         <v>741</v>
@@ -12902,35 +12920,35 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>649</v>
+        <v>776</v>
       </c>
       <c r="B257" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C257" t="s">
         <v>75</v>
       </c>
       <c r="D257" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>425</v>
+        <v>652</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>780</v>
+        <v>428</v>
       </c>
       <c r="B259" t="s">
         <v>781</v>
@@ -13014,35 +13032,35 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>142</v>
+        <v>798</v>
       </c>
       <c r="B265" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C265" t="s">
         <v>75</v>
       </c>
       <c r="D265" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>802</v>
+        <v>226</v>
       </c>
       <c r="B267" t="s">
         <v>803</v>
@@ -13118,7 +13136,7 @@
         <v>818</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>819</v>
@@ -13224,35 +13242,35 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>154</v>
+        <v>841</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="B281" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C281" t="s">
         <v>79</v>
       </c>
       <c r="D281" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>845</v>
+        <v>240</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>846</v>
@@ -13406,21 +13424,21 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>480</v>
+        <v>878</v>
       </c>
       <c r="B293" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C293" t="s">
         <v>79</v>
       </c>
       <c r="D293" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>880</v>
+        <v>483</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>881</v>
@@ -13440,7 +13458,7 @@
         <v>884</v>
       </c>
       <c r="C295" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D295" t="s">
         <v>885</v>
@@ -13454,7 +13472,7 @@
         <v>887</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>888</v>
@@ -13524,7 +13542,7 @@
         <v>902</v>
       </c>
       <c r="C301" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D301" t="s">
         <v>903</v>
@@ -13538,7 +13556,7 @@
         <v>905</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>906</v>
@@ -13546,21 +13564,21 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>789</v>
+        <v>907</v>
       </c>
       <c r="B303" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C303" t="s">
         <v>79</v>
       </c>
       <c r="D303" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>909</v>
+        <v>792</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>910</v>
@@ -13580,7 +13598,7 @@
         <v>913</v>
       </c>
       <c r="C305" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D305" t="s">
         <v>914</v>
@@ -13594,7 +13612,7 @@
         <v>916</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>917</v>
@@ -13630,21 +13648,21 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>193</v>
+        <v>924</v>
       </c>
       <c r="B309" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C309" t="s">
         <v>79</v>
       </c>
       <c r="D309" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>926</v>
+        <v>196</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>927</v>
@@ -13790,7 +13808,7 @@
         <v>957</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>958</v>
@@ -13798,21 +13816,21 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>317</v>
+        <v>959</v>
       </c>
       <c r="B321" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C321" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D321" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>961</v>
+        <v>320</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>962</v>
@@ -13896,21 +13914,21 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>520</v>
+        <v>979</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>981</v>
+        <v>523</v>
       </c>
       <c r="B329" t="s">
         <v>982</v>
@@ -13952,21 +13970,21 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>383</v>
+        <v>990</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>992</v>
+        <v>386</v>
       </c>
       <c r="B333" t="s">
         <v>993</v>
@@ -14378,7 +14396,7 @@
         <v>1080</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>1081</v>
@@ -14392,7 +14410,7 @@
         <v>1083</v>
       </c>
       <c r="C363" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D363" t="s">
         <v>1084</v>
@@ -14484,21 +14502,21 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>697</v>
+        <v>1103</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1105</v>
+        <v>700</v>
       </c>
       <c r="B371" t="s">
         <v>1106</v>
@@ -15128,35 +15146,35 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>56</v>
+        <v>1240</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B417" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C417" t="s">
         <v>79</v>
       </c>
       <c r="D417" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>1245</v>
+        <v>56</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>1246</v>
@@ -15366,49 +15384,49 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>422</v>
+        <v>1290</v>
       </c>
       <c r="B433" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C433" t="s">
         <v>79</v>
       </c>
       <c r="D433" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>366</v>
+        <v>1293</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1294</v>
+        <v>425</v>
       </c>
       <c r="B435" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C435" t="s">
         <v>79</v>
       </c>
       <c r="D435" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>1297</v>
+        <v>369</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>1298</v>
@@ -15786,35 +15804,35 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>770</v>
+        <v>1378</v>
       </c>
       <c r="B463" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C463" t="s">
         <v>79</v>
       </c>
       <c r="D463" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1383</v>
+        <v>773</v>
       </c>
       <c r="B465" t="s">
         <v>1384</v>
@@ -16290,35 +16308,35 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>491</v>
+        <v>1485</v>
       </c>
       <c r="B499" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C499" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D499" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1490</v>
+        <v>494</v>
       </c>
       <c r="B501" t="s">
         <v>1491</v>
@@ -16380,7 +16398,7 @@
         <v>1503</v>
       </c>
       <c r="C505" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D505" t="s">
         <v>1504</v>
@@ -16394,7 +16412,7 @@
         <v>1506</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>1507</v>
@@ -16458,35 +16476,35 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>108</v>
+        <v>1520</v>
       </c>
       <c r="B511" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C511" t="s">
         <v>95</v>
       </c>
       <c r="D511" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C512" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1525</v>
+        <v>108</v>
       </c>
       <c r="B513" t="s">
         <v>1526</v>
@@ -16528,77 +16546,77 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>1354</v>
+        <v>1534</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C516" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>40</v>
+        <v>1537</v>
       </c>
       <c r="B517" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C517" t="s">
         <v>95</v>
       </c>
       <c r="D517" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>872</v>
+        <v>1360</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="C518" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="B519" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="C519" t="s">
         <v>95</v>
       </c>
       <c r="D519" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>1542</v>
+        <v>875</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C520" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1545</v>
+        <v>269</v>
       </c>
       <c r="B521" t="s">
         <v>1546</v>
@@ -16612,69 +16630,69 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>1150</v>
+        <v>1548</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C522" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>746</v>
+        <v>1551</v>
       </c>
       <c r="B523" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="C523" t="s">
         <v>95</v>
       </c>
       <c r="D523" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>1120</v>
+        <v>1153</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="C524" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1554</v>
+        <v>749</v>
       </c>
       <c r="B525" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C525" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D525" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>1557</v>
+        <v>1123</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>1558</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D526" s="3" t="s">
         <v>1559</v>
@@ -16688,7 +16706,7 @@
         <v>1561</v>
       </c>
       <c r="C527" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D527" t="s">
         <v>1562</v>
@@ -16702,7 +16720,7 @@
         <v>1564</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D528" s="3" t="s">
         <v>1565</v>
@@ -16716,7 +16734,7 @@
         <v>1567</v>
       </c>
       <c r="C529" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D529" t="s">
         <v>1568</v>
@@ -16730,7 +16748,7 @@
         <v>1570</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D530" s="3" t="s">
         <v>1571</v>
@@ -16814,7 +16832,7 @@
         <v>1588</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>1589</v>
@@ -16842,7 +16860,7 @@
         <v>1594</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>1595</v>
@@ -16926,7 +16944,7 @@
         <v>1612</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D544" s="3" t="s">
         <v>1613</v>
@@ -16954,7 +16972,7 @@
         <v>1618</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D546" s="3" t="s">
         <v>1619</v>
@@ -16982,7 +17000,7 @@
         <v>1624</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D548" s="3" t="s">
         <v>1625</v>
@@ -17010,7 +17028,7 @@
         <v>1630</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D550" s="3" t="s">
         <v>1631</v>
@@ -17074,41 +17092,41 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>28</v>
+        <v>1644</v>
       </c>
       <c r="B555" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C555" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D555" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C556" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1649</v>
+        <v>28</v>
       </c>
       <c r="B557" t="s">
         <v>1650</v>
       </c>
       <c r="C557" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D557" t="s">
         <v>1651</v>
@@ -17164,7 +17182,7 @@
         <v>1662</v>
       </c>
       <c r="C561" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D561" t="s">
         <v>1663</v>
@@ -17192,7 +17210,7 @@
         <v>1668</v>
       </c>
       <c r="C563" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D563" t="s">
         <v>1669</v>
@@ -17228,55 +17246,55 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>272</v>
+        <v>1676</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>805</v>
+        <v>1679</v>
       </c>
       <c r="B567" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C567" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D567" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
-        <v>1680</v>
+        <v>275</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1683</v>
+        <v>808</v>
       </c>
       <c r="B569" t="s">
         <v>1684</v>
       </c>
       <c r="C569" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D569" t="s">
         <v>1685</v>
@@ -17284,35 +17302,35 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
-        <v>246</v>
+        <v>1686</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B571" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C571" t="s">
         <v>99</v>
       </c>
       <c r="D571" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>1691</v>
+        <v>249</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>1692</v>
@@ -17326,49 +17344,49 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>590</v>
+        <v>1694</v>
       </c>
       <c r="B573" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C573" t="s">
         <v>99</v>
       </c>
       <c r="D573" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
-        <v>664</v>
+        <v>1697</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C574" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1698</v>
+        <v>593</v>
       </c>
       <c r="B575" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C575" t="s">
         <v>99</v>
       </c>
       <c r="D575" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
-        <v>1701</v>
+        <v>667</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>1702</v>
@@ -17424,49 +17442,49 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
-        <v>1531</v>
+        <v>1713</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C580" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B581" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C581" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D581" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C582" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1721</v>
+        <v>1537</v>
       </c>
       <c r="B583" t="s">
         <v>1722</v>
@@ -17480,63 +17498,63 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
-        <v>275</v>
+        <v>1724</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>124</v>
+        <v>1727</v>
       </c>
       <c r="B585" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="C585" t="s">
         <v>99</v>
       </c>
       <c r="D585" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="C586" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1731</v>
+        <v>278</v>
       </c>
       <c r="B587" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C587" t="s">
         <v>99</v>
       </c>
       <c r="D587" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
-        <v>1734</v>
+        <v>124</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>1735</v>
@@ -17564,49 +17582,49 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
-        <v>634</v>
+        <v>1740</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C590" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B591" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C591" t="s">
         <v>99</v>
       </c>
       <c r="D591" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C592" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1748</v>
+        <v>637</v>
       </c>
       <c r="B593" t="s">
         <v>1749</v>
@@ -17626,7 +17644,7 @@
         <v>1752</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D594" s="3" t="s">
         <v>1753</v>
@@ -17668,7 +17686,7 @@
         <v>1761</v>
       </c>
       <c r="C597" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D597" t="s">
         <v>1762</v>
@@ -17676,49 +17694,49 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
-        <v>196</v>
+        <v>1763</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C598" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B599" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C599" t="s">
         <v>99</v>
       </c>
       <c r="D599" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1771</v>
+        <v>199</v>
       </c>
       <c r="B601" t="s">
         <v>1772</v>
@@ -17788,49 +17806,49 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
-        <v>446</v>
+        <v>1786</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C606" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B607" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C607" t="s">
         <v>99</v>
       </c>
       <c r="D607" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C608" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1794</v>
+        <v>449</v>
       </c>
       <c r="B609" t="s">
         <v>1795</v>
@@ -17914,49 +17932,49 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>357</v>
+        <v>1812</v>
       </c>
       <c r="B615" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C615" t="s">
         <v>99</v>
       </c>
       <c r="D615" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C616" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B617" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C617" t="s">
         <v>99</v>
       </c>
       <c r="D617" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>1820</v>
+        <v>360</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>1821</v>
@@ -17970,49 +17988,49 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>120</v>
+        <v>1823</v>
       </c>
       <c r="B619" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C619" t="s">
         <v>99</v>
       </c>
       <c r="D619" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B621" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C621" t="s">
         <v>99</v>
       </c>
       <c r="D621" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
-        <v>1831</v>
+        <v>120</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>1832</v>
@@ -18060,7 +18078,7 @@
         <v>1841</v>
       </c>
       <c r="C625" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D625" t="s">
         <v>1842</v>
@@ -18074,7 +18092,7 @@
         <v>1844</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D626" s="3" t="s">
         <v>1845</v>
@@ -18088,7 +18106,7 @@
         <v>1847</v>
       </c>
       <c r="C627" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D627" t="s">
         <v>1848</v>
@@ -18102,7 +18120,7 @@
         <v>1850</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D628" s="3" t="s">
         <v>1851</v>
@@ -18130,7 +18148,7 @@
         <v>1856</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D630" s="3" t="s">
         <v>1857</v>
@@ -18138,55 +18156,55 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>523</v>
+        <v>1858</v>
       </c>
       <c r="B631" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C631" t="s">
         <v>99</v>
       </c>
       <c r="D631" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C632" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B633" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C633" t="s">
         <v>99</v>
       </c>
       <c r="D633" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>1866</v>
+        <v>526</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>1867</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D634" s="3" t="s">
         <v>1868</v>
@@ -18194,49 +18212,49 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>685</v>
+        <v>1869</v>
       </c>
       <c r="B635" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C635" t="s">
         <v>99</v>
       </c>
       <c r="D635" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C636" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B637" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C637" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D637" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
-        <v>1877</v>
+        <v>688</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>1878</v>
@@ -18270,7 +18288,7 @@
         <v>1884</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D640" s="3" t="s">
         <v>1885</v>
@@ -18292,91 +18310,91 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
-        <v>746</v>
+        <v>1889</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C642" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B643" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C643" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D643" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C644" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>68</v>
+        <v>749</v>
       </c>
       <c r="B645" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C645" t="s">
         <v>99</v>
       </c>
       <c r="D645" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C646" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B647" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C647" t="s">
         <v>99</v>
       </c>
       <c r="D647" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
-        <v>1905</v>
+        <v>68</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>1906</v>
@@ -18432,77 +18450,77 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
-        <v>127</v>
+        <v>1917</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C652" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="B653" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C653" t="s">
         <v>99</v>
       </c>
       <c r="D653" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
-        <v>333</v>
+        <v>1923</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="C654" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D654" s="3" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1924</v>
+        <v>127</v>
       </c>
       <c r="B655" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C655" t="s">
         <v>99</v>
       </c>
       <c r="D655" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C656" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D656" s="3" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1930</v>
+        <v>336</v>
       </c>
       <c r="B657" t="s">
         <v>1931</v>
@@ -18516,91 +18534,91 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
-        <v>735</v>
+        <v>1933</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C658" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>401</v>
+        <v>1936</v>
       </c>
       <c r="B659" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="C659" t="s">
         <v>99</v>
       </c>
       <c r="D659" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="C660" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D660" s="3" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1508</v>
+        <v>738</v>
       </c>
       <c r="B661" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="C661" t="s">
         <v>99</v>
       </c>
       <c r="D661" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
-        <v>1942</v>
+        <v>404</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C662" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D662" s="3" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B663" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C663" t="s">
         <v>99</v>
       </c>
       <c r="D663" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
-        <v>1948</v>
+        <v>1514</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>1949</v>
@@ -18956,7 +18974,7 @@
         <v>2024</v>
       </c>
       <c r="C689" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D689" t="s">
         <v>2025</v>
@@ -18984,7 +19002,7 @@
         <v>2030</v>
       </c>
       <c r="C691" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D691" t="s">
         <v>2031</v>
@@ -19012,7 +19030,7 @@
         <v>2036</v>
       </c>
       <c r="C693" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D693" t="s">
         <v>2037</v>
@@ -19082,7 +19100,7 @@
         <v>2051</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D698" s="3" t="s">
         <v>2052</v>
@@ -19096,7 +19114,7 @@
         <v>2054</v>
       </c>
       <c r="C699" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D699" t="s">
         <v>2055</v>
@@ -19104,41 +19122,41 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="3" t="s">
-        <v>755</v>
+        <v>2056</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D700" s="3" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B701" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C701" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D701" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
-        <v>2061</v>
+        <v>758</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>2062</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D702" s="3" t="s">
         <v>2063</v>
@@ -19166,7 +19184,7 @@
         <v>2068</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D704" s="3" t="s">
         <v>2069</v>
@@ -19194,7 +19212,7 @@
         <v>2074</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D706" s="3" t="s">
         <v>2075</v>
@@ -19236,7 +19254,7 @@
         <v>2083</v>
       </c>
       <c r="C709" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D709" t="s">
         <v>2084</v>
@@ -19264,7 +19282,7 @@
         <v>2089</v>
       </c>
       <c r="C711" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D711" t="s">
         <v>2090</v>
@@ -19384,35 +19402,35 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="3" t="s">
-        <v>108</v>
+        <v>2115</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="C720" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="B721" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="C721" t="s">
         <v>99</v>
       </c>
       <c r="D721" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="3" t="s">
-        <v>2120</v>
+        <v>108</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>2121</v>
@@ -19460,7 +19478,7 @@
         <v>2130</v>
       </c>
       <c r="C725" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D725" t="s">
         <v>2131</v>
@@ -19488,7 +19506,7 @@
         <v>2136</v>
       </c>
       <c r="C727" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D727" t="s">
         <v>2137</v>
@@ -19566,35 +19584,35 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>214</v>
+        <v>2153</v>
       </c>
       <c r="B733" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="C733" t="s">
         <v>99</v>
       </c>
       <c r="D733" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="C734" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>2158</v>
+        <v>217</v>
       </c>
       <c r="B735" t="s">
         <v>2159</v>
@@ -19614,7 +19632,7 @@
         <v>2162</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D736" s="3" t="s">
         <v>2163</v>
@@ -19642,7 +19660,7 @@
         <v>2168</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D738" s="3" t="s">
         <v>2169</v>
@@ -19650,41 +19668,41 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>296</v>
+        <v>2170</v>
       </c>
       <c r="B739" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="C739" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D739" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="3" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>2175</v>
+        <v>299</v>
       </c>
       <c r="B741" t="s">
         <v>2176</v>
       </c>
       <c r="C741" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D741" t="s">
         <v>2177</v>
@@ -19698,7 +19716,7 @@
         <v>2179</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D742" s="3" t="s">
         <v>2180</v>
@@ -19740,7 +19758,7 @@
         <v>2188</v>
       </c>
       <c r="C745" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D745" t="s">
         <v>2189</v>
@@ -19824,7 +19842,7 @@
         <v>2206</v>
       </c>
       <c r="C751" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D751" t="s">
         <v>2207</v>
@@ -19846,35 +19864,35 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>336</v>
+        <v>2211</v>
       </c>
       <c r="B753" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="C753" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D753" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="3" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="C754" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>2216</v>
+        <v>339</v>
       </c>
       <c r="B755" t="s">
         <v>2217</v>
@@ -19902,35 +19920,35 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>711</v>
+        <v>2222</v>
       </c>
       <c r="B757" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="C757" t="s">
         <v>99</v>
       </c>
       <c r="D757" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="3" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="C758" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D758" s="3" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>2227</v>
+        <v>714</v>
       </c>
       <c r="B759" t="s">
         <v>2228</v>
@@ -20048,7 +20066,7 @@
         <v>2252</v>
       </c>
       <c r="C767" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D767" t="s">
         <v>2253</v>
@@ -20062,7 +20080,7 @@
         <v>2255</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D768" s="3" t="s">
         <v>2256</v>
@@ -20076,7 +20094,7 @@
         <v>2258</v>
       </c>
       <c r="C769" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D769" t="s">
         <v>2259</v>
@@ -20090,7 +20108,7 @@
         <v>2261</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D770" s="3" t="s">
         <v>2262</v>
@@ -20098,35 +20116,35 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>20</v>
+        <v>2263</v>
       </c>
       <c r="B771" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="C771" t="s">
         <v>99</v>
       </c>
       <c r="D771" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" s="3" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="C772" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>2268</v>
+        <v>20</v>
       </c>
       <c r="B773" t="s">
         <v>2269</v>
@@ -20188,7 +20206,7 @@
         <v>2281</v>
       </c>
       <c r="C777" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D777" t="s">
         <v>2282</v>
@@ -20216,7 +20234,7 @@
         <v>2287</v>
       </c>
       <c r="C779" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D779" t="s">
         <v>2288</v>
@@ -20328,7 +20346,7 @@
         <v>2311</v>
       </c>
       <c r="C787" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D787" t="s">
         <v>2312</v>
@@ -20342,7 +20360,7 @@
         <v>2314</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D788" s="3" t="s">
         <v>2315</v>
@@ -20356,7 +20374,7 @@
         <v>2317</v>
       </c>
       <c r="C789" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D789" t="s">
         <v>2318</v>
@@ -20370,7 +20388,7 @@
         <v>2320</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D790" s="3" t="s">
         <v>2321</v>
@@ -20378,35 +20396,35 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>1490</v>
+        <v>2322</v>
       </c>
       <c r="B791" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="C791" t="s">
         <v>99</v>
       </c>
       <c r="D791" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="3" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>2327</v>
+        <v>1496</v>
       </c>
       <c r="B793" t="s">
         <v>2328</v>
@@ -20420,63 +20438,63 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="3" t="s">
-        <v>136</v>
+        <v>2330</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="C794" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="B795" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="C795" t="s">
         <v>99</v>
       </c>
       <c r="D795" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="3" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="C796" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D796" s="3" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="B797" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="C797" t="s">
         <v>99</v>
       </c>
       <c r="D797" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="3" t="s">
-        <v>2340</v>
+        <v>72</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>2341</v>
@@ -20580,7 +20598,7 @@
         <v>2362</v>
       </c>
       <c r="C805" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D805" t="s">
         <v>2363</v>
@@ -20608,7 +20626,7 @@
         <v>2368</v>
       </c>
       <c r="C807" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D807" t="s">
         <v>2369</v>
@@ -20616,49 +20634,49 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
-        <v>1452</v>
+        <v>2370</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>425</v>
+        <v>2373</v>
       </c>
       <c r="B809" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="C809" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D809" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
-        <v>2374</v>
+        <v>1458</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="C810" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>2377</v>
+        <v>428</v>
       </c>
       <c r="B811" t="s">
         <v>2378</v>
@@ -20672,35 +20690,35 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
-        <v>130</v>
+        <v>2380</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="C812" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="B813" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="C813" t="s">
         <v>115</v>
       </c>
       <c r="D813" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
-        <v>2385</v>
+        <v>130</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>2386</v>
@@ -20714,91 +20732,91 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>1670</v>
+        <v>2388</v>
       </c>
       <c r="B815" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="C815" t="s">
         <v>115</v>
       </c>
       <c r="D815" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="3" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C816" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>154</v>
+        <v>1676</v>
       </c>
       <c r="B817" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="C817" t="s">
         <v>115</v>
       </c>
       <c r="D817" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="C818" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>485</v>
+        <v>154</v>
       </c>
       <c r="B819" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="C819" t="s">
         <v>115</v>
       </c>
       <c r="D819" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="3" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="C820" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>2403</v>
+        <v>488</v>
       </c>
       <c r="B821" t="s">
         <v>2404</v>
@@ -20812,41 +20830,41 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" s="3" t="s">
-        <v>124</v>
+        <v>2406</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C822" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="B823" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="C823" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D823" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="3" t="s">
-        <v>2411</v>
+        <v>124</v>
       </c>
       <c r="B824" s="3" t="s">
         <v>2412</v>
       </c>
       <c r="C824" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D824" s="3" t="s">
         <v>2413</v>
@@ -20910,35 +20928,35 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>811</v>
+        <v>2426</v>
       </c>
       <c r="B829" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="C829" t="s">
         <v>119</v>
       </c>
       <c r="D829" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="C830" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D830" s="3" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>2431</v>
+        <v>814</v>
       </c>
       <c r="B831" t="s">
         <v>2432</v>
@@ -21092,91 +21110,91 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" s="3" t="s">
-        <v>40</v>
+        <v>2464</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="C842" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="B843" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="C843" t="s">
         <v>119</v>
       </c>
       <c r="D843" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" s="3" t="s">
-        <v>1542</v>
+        <v>40</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="C844" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D844" s="3" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="B845" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="C845" t="s">
         <v>119</v>
       </c>
       <c r="D845" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" s="3" t="s">
-        <v>32</v>
+        <v>1548</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="C846" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D846" s="3" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="B847" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="C847" t="s">
         <v>119</v>
       </c>
       <c r="D847" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" s="3" t="s">
-        <v>2479</v>
+        <v>32</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>2480</v>
@@ -21232,35 +21250,35 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" s="3" t="s">
-        <v>1545</v>
+        <v>2491</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="C852" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D852" s="3" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="B853" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="C853" t="s">
         <v>119</v>
       </c>
       <c r="D853" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" s="3" t="s">
-        <v>2496</v>
+        <v>1551</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>2497</v>
@@ -21358,35 +21376,35 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>440</v>
+        <v>2517</v>
       </c>
       <c r="B861" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="C861" t="s">
         <v>119</v>
       </c>
       <c r="D861" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" s="3" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="C862" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>2522</v>
+        <v>443</v>
       </c>
       <c r="B863" t="s">
         <v>2523</v>
@@ -21420,7 +21438,7 @@
         <v>2529</v>
       </c>
       <c r="C865" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D865" t="s">
         <v>2530</v>
@@ -21448,7 +21466,7 @@
         <v>2535</v>
       </c>
       <c r="C867" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D867" t="s">
         <v>2536</v>
@@ -21456,35 +21474,35 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" s="3" t="s">
-        <v>465</v>
+        <v>2537</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="C868" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D868" s="3" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="B869" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="C869" t="s">
         <v>119</v>
       </c>
       <c r="D869" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" s="3" t="s">
-        <v>2542</v>
+        <v>468</v>
       </c>
       <c r="B870" s="3" t="s">
         <v>2543</v>
@@ -21568,63 +21586,63 @@
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" s="3" t="s">
-        <v>217</v>
+        <v>2560</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="C876" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D876" s="3" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="B877" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="C877" t="s">
         <v>119</v>
       </c>
       <c r="D877" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" s="3" t="s">
-        <v>351</v>
+        <v>220</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="C878" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D878" s="3" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="B879" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="C879" t="s">
         <v>119</v>
       </c>
       <c r="D879" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" s="3" t="s">
-        <v>2570</v>
+        <v>354</v>
       </c>
       <c r="B880" s="3" t="s">
         <v>2571</v>
@@ -21770,7 +21788,7 @@
         <v>2601</v>
       </c>
       <c r="C890" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D890" s="3" t="s">
         <v>2602</v>
@@ -21778,35 +21796,35 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>258</v>
+        <v>2603</v>
       </c>
       <c r="B891" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="C891" t="s">
         <v>119</v>
       </c>
       <c r="D891" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" s="3" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="C892" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D892" s="3" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>2608</v>
+        <v>261</v>
       </c>
       <c r="B893" t="s">
         <v>2609</v>
@@ -21820,35 +21838,35 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" s="3" t="s">
-        <v>314</v>
+        <v>2611</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="C894" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D894" s="3" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="B895" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="C895" t="s">
         <v>119</v>
       </c>
       <c r="D895" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" s="3" t="s">
-        <v>2616</v>
+        <v>317</v>
       </c>
       <c r="B896" s="3" t="s">
         <v>2617</v>
@@ -21932,35 +21950,35 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" s="3" t="s">
-        <v>130</v>
+        <v>2634</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="C902" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="B903" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="C903" t="s">
         <v>119</v>
       </c>
       <c r="D903" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" s="3" t="s">
-        <v>2639</v>
+        <v>130</v>
       </c>
       <c r="B904" s="3" t="s">
         <v>2640</v>
@@ -22072,35 +22090,35 @@
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" s="3" t="s">
-        <v>2390</v>
+        <v>2663</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="C912" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D912" s="3" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="B913" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="C913" t="s">
         <v>119</v>
       </c>
       <c r="D913" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" s="3" t="s">
-        <v>2668</v>
+        <v>2396</v>
       </c>
       <c r="B914" s="3" t="s">
         <v>2669</v>
@@ -22198,35 +22216,35 @@
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>299</v>
+        <v>2689</v>
       </c>
       <c r="B921" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="C921" t="s">
         <v>119</v>
       </c>
       <c r="D921" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="3" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="C922" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D922" s="3" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>2694</v>
+        <v>302</v>
       </c>
       <c r="B923" t="s">
         <v>2695</v>
@@ -22470,7 +22488,7 @@
         <v>2746</v>
       </c>
       <c r="C940" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D940" s="3" t="s">
         <v>2747</v>
@@ -22492,35 +22510,35 @@
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="3" t="s">
-        <v>80</v>
+        <v>2751</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="C942" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D942" s="3" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="B943" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="C943" t="s">
         <v>119</v>
       </c>
       <c r="D943" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="3" t="s">
-        <v>2756</v>
+        <v>80</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>2757</v>
@@ -22534,35 +22552,35 @@
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>223</v>
+        <v>2759</v>
       </c>
       <c r="B945" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="C945" t="s">
         <v>119</v>
       </c>
       <c r="D945" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" s="3" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="C946" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D946" s="3" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>2764</v>
+        <v>226</v>
       </c>
       <c r="B947" t="s">
         <v>2765</v>
@@ -22716,35 +22734,35 @@
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" s="3" t="s">
-        <v>419</v>
+        <v>2797</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="C958" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D958" s="3" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="B959" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="C959" t="s">
         <v>119</v>
       </c>
       <c r="D959" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" s="3" t="s">
-        <v>2802</v>
+        <v>422</v>
       </c>
       <c r="B960" s="3" t="s">
         <v>2803</v>
@@ -22806,7 +22824,7 @@
         <v>2815</v>
       </c>
       <c r="C964" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D964" s="3" t="s">
         <v>2816</v>
@@ -22834,7 +22852,7 @@
         <v>2821</v>
       </c>
       <c r="C966" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D966" s="3" t="s">
         <v>2822</v>
@@ -23038,35 +23056,35 @@
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>528</v>
+        <v>2865</v>
       </c>
       <c r="B981" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="C981" t="s">
         <v>119</v>
       </c>
       <c r="D981" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" s="3" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="B982" s="3" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="C982" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D982" s="3" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>2870</v>
+        <v>531</v>
       </c>
       <c r="B983" t="s">
         <v>2871</v>
@@ -23122,35 +23140,35 @@
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>643</v>
+        <v>2882</v>
       </c>
       <c r="B987" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="C987" t="s">
         <v>119</v>
       </c>
       <c r="D987" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" s="3" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="B988" s="3" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="C988" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D988" s="3" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>2887</v>
+        <v>646</v>
       </c>
       <c r="B989" t="s">
         <v>2888</v>
@@ -23216,6 +23234,34 @@
       </c>
       <c r="D993" t="s">
         <v>2901</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994" s="3" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B994" s="3" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C994" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D994" s="3" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B995" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C995" t="s">
+        <v>119</v>
+      </c>
+      <c r="D995" t="s">
+        <v>2907</v>
       </c>
     </row>
   </sheetData>
